--- a/data/financial_statements/soci/LYV.xlsx
+++ b/data/financial_statements/soci/LYV.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6154000000</v>
+        <v>6153535000</v>
       </c>
       <c r="C2">
-        <v>4434000000</v>
+        <v>4434174000</v>
       </c>
       <c r="D2">
-        <v>1803000000</v>
+        <v>1802808000</v>
       </c>
       <c r="E2">
-        <v>2703000000</v>
+        <v>2703170000</v>
       </c>
       <c r="F2">
-        <v>2699000000</v>
+        <v>2698722000</v>
       </c>
       <c r="G2">
         <v>575946000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1.2801</v>
+        <v>1.2802</v>
       </c>
       <c r="C3">
-        <v>6.6986</v>
+        <v>6.6989</v>
       </c>
       <c r="D3">
-        <v>5.2042</v>
+        <v>5.2036</v>
       </c>
       <c r="E3">
-        <v>10.3867</v>
+        <v>10.3874</v>
       </c>
       <c r="F3">
-        <v>13.667</v>
+        <v>13.6655</v>
       </c>
       <c r="G3">
         <v>6.7742</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>4810000000</v>
+        <v>4707848000</v>
       </c>
       <c r="C4">
-        <v>3383000000</v>
+        <v>3267023000</v>
       </c>
       <c r="D4">
-        <v>1171000000</v>
+        <v>1071022000</v>
       </c>
       <c r="E4">
-        <v>2112000000</v>
+        <v>2008990000</v>
       </c>
       <c r="F4">
-        <v>2071000000</v>
+        <v>1969912000</v>
       </c>
       <c r="G4">
         <v>243120000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1344000000</v>
+        <v>1445687000</v>
       </c>
       <c r="C5">
-        <v>1051000000</v>
+        <v>1167151000</v>
       </c>
       <c r="D5">
-        <v>631000000</v>
+        <v>731786000</v>
       </c>
       <c r="E5">
-        <v>592000000</v>
+        <v>694179400</v>
       </c>
       <c r="F5">
-        <v>628000000</v>
+        <v>728809900</v>
       </c>
       <c r="G5">
         <v>332826000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>805910000</v>
@@ -1115,7 +1226,7 @@
         <v>656146000</v>
       </c>
       <c r="F6">
-        <v>492000000</v>
+        <v>446929000</v>
       </c>
       <c r="G6">
         <v>328894000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>506249000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>71000000</v>
@@ -1384,23 +1495,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>26000000</v>
+        <v>70514000</v>
       </c>
       <c r="C9">
-        <v>13000000</v>
+        <v>68435000</v>
       </c>
       <c r="D9">
-        <v>8000000</v>
+        <v>66773000</v>
       </c>
       <c r="E9">
-        <v>3000000</v>
+        <v>72294000</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>70407000</v>
       </c>
       <c r="G9">
         <v>68909000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>27000000</v>
+        <v>-66948000</v>
       </c>
       <c r="C10">
-        <v>-6000000</v>
+        <v>-58327000</v>
       </c>
       <c r="D10">
-        <v>-11000000</v>
+        <v>-64320000</v>
       </c>
       <c r="E10">
-        <v>16000000</v>
+        <v>-55501000</v>
       </c>
       <c r="F10">
-        <v>19000000</v>
+        <v>-43857000</v>
       </c>
       <c r="G10">
         <v>-80890000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>439000000</v>
+        <v>439301000</v>
       </c>
       <c r="C11">
-        <v>260000000</v>
+        <v>260372000</v>
       </c>
       <c r="D11">
-        <v>-37000000</v>
+        <v>-37260000</v>
       </c>
       <c r="E11">
-        <v>-180000000</v>
+        <v>-180047100</v>
       </c>
       <c r="F11">
-        <v>93000000</v>
+        <v>93288000</v>
       </c>
       <c r="G11">
         <v>-208175000</v>
@@ -1750,23 +1861,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>42000000</v>
+        <v>41898000</v>
       </c>
       <c r="C12">
-        <v>32000000</v>
+        <v>31995000</v>
       </c>
       <c r="D12">
-        <v>12000000</v>
+        <v>11696000</v>
       </c>
       <c r="E12">
-        <v>-18000000</v>
+        <v>-17576000</v>
       </c>
       <c r="F12">
-        <v>6000000</v>
+        <v>6421000</v>
       </c>
       <c r="G12">
         <v>2285000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>397403000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2053,8 +2164,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>65916000</v>
@@ -2175,23 +2286,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>331000000</v>
+        <v>331487000</v>
       </c>
       <c r="C16">
-        <v>155000000</v>
+        <v>155240000</v>
       </c>
       <c r="D16">
-        <v>-86000000</v>
+        <v>-85896000</v>
       </c>
       <c r="E16">
-        <v>-210000000</v>
+        <v>-210485000</v>
       </c>
       <c r="F16">
-        <v>43000000</v>
+        <v>42633000</v>
       </c>
       <c r="G16">
         <v>-194714000</v>
@@ -2297,20 +2408,20 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1.47</v>
       </c>
       <c r="C17">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D17">
         <v>-0.39</v>
       </c>
       <c r="E17">
-        <v>-0.9399999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="F17">
         <v>0.2</v>
@@ -2419,8 +2530,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.39</v>
@@ -2435,7 +2546,7 @@
         <v>-0.96</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G18">
         <v>-0.9</v>
@@ -2541,23 +2652,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>226000000</v>
+        <v>225761800</v>
       </c>
       <c r="C19">
-        <v>225000000</v>
+        <v>224674500</v>
       </c>
       <c r="D19">
-        <v>222000000</v>
+        <v>221890600</v>
       </c>
       <c r="E19">
-        <v>225000000</v>
+        <v>217191000</v>
       </c>
       <c r="F19">
-        <v>217000000</v>
+        <v>216888400</v>
       </c>
       <c r="G19">
         <v>215702500</v>
@@ -2663,23 +2774,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>244000000</v>
+        <v>243686800</v>
       </c>
       <c r="C20">
-        <v>244000000</v>
+        <v>243634800</v>
       </c>
       <c r="D20">
-        <v>222000000</v>
+        <v>221890600</v>
       </c>
       <c r="E20">
-        <v>225000000</v>
+        <v>217191000</v>
       </c>
       <c r="F20">
-        <v>217000000</v>
+        <v>223800400</v>
       </c>
       <c r="G20">
         <v>215702500</v>
@@ -2785,23 +2896,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.2184</v>
+        <v>0.2349</v>
       </c>
       <c r="C21">
-        <v>0.237</v>
+        <v>0.2632</v>
       </c>
       <c r="D21">
-        <v>0.35</v>
+        <v>0.4059</v>
       </c>
       <c r="E21">
-        <v>0.219</v>
+        <v>0.2568</v>
       </c>
       <c r="F21">
-        <v>0.2327</v>
+        <v>0.2701</v>
       </c>
       <c r="G21">
         <v>0.5779</v>
@@ -2907,8 +3018,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.0823</v>
@@ -3029,23 +3140,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0713</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="C23">
-        <v>0.0586</v>
+        <v>0.0587</v>
       </c>
       <c r="D23">
-        <v>-0.0205</v>
+        <v>-0.0207</v>
       </c>
       <c r="E23">
         <v>-0.06660000000000001</v>
       </c>
       <c r="F23">
-        <v>0.0345</v>
+        <v>0.0346</v>
       </c>
       <c r="G23">
         <v>-0.3614</v>
@@ -3151,23 +3262,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.0538</v>
+        <v>0.0539</v>
       </c>
       <c r="C24">
         <v>0.035</v>
       </c>
       <c r="D24">
-        <v>-0.0477</v>
+        <v>-0.0476</v>
       </c>
       <c r="E24">
-        <v>-0.07770000000000001</v>
+        <v>-0.0779</v>
       </c>
       <c r="F24">
-        <v>0.0159</v>
+        <v>0.0158</v>
       </c>
       <c r="G24">
         <v>-0.3381</v>
@@ -3273,23 +3384,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>589000000</v>
+        <v>628180000</v>
       </c>
       <c r="C25">
-        <v>458000000</v>
+        <v>460600800</v>
       </c>
       <c r="D25">
-        <v>148000000</v>
+        <v>150169900</v>
       </c>
       <c r="E25">
-        <v>3000000</v>
+        <v>12508400</v>
       </c>
       <c r="F25">
-        <v>258000000</v>
+        <v>268611000</v>
       </c>
       <c r="G25">
         <v>3444000</v>
@@ -3395,8 +3506,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>506249000</v>
@@ -3517,8 +3628,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>397403000</v>
@@ -3639,23 +3750,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>367000000</v>
+        <v>397403000</v>
       </c>
       <c r="C28">
-        <v>196000000</v>
+        <v>228377000</v>
       </c>
       <c r="D28">
-        <v>-85000000</v>
+        <v>-48956000</v>
       </c>
       <c r="E28">
-        <v>-178000000</v>
+        <v>-162471000</v>
       </c>
       <c r="F28">
-        <v>83000000</v>
+        <v>86867000</v>
       </c>
       <c r="G28">
         <v>-210460000</v>
@@ -3761,8 +3872,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.7603</v>
@@ -3883,8 +3994,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.6308</v>
@@ -4005,8 +4116,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.7603</v>
@@ -4127,8 +4238,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.6308</v>
@@ -4249,8 +4360,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>243687000</v>
@@ -4371,23 +4482,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.09569999999999999</v>
+        <v>0.1021</v>
       </c>
       <c r="C34">
-        <v>0.1033</v>
+        <v>0.1039</v>
       </c>
       <c r="D34">
-        <v>0.08210000000000001</v>
+        <v>0.0833</v>
       </c>
       <c r="E34">
-        <v>0.0011</v>
+        <v>0.0046</v>
       </c>
       <c r="F34">
-        <v>0.0956</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="G34">
         <v>0.006</v>
@@ -4493,8 +4604,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>-0.1006</v>
@@ -4503,7 +4614,7 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="D35">
-        <v>0.6646</v>
+        <v>0.6647</v>
       </c>
       <c r="E35">
         <v>0.2796</v>
